--- a/CONG NO/CHI PHI NK RONG BIEN.xlsx
+++ b/CONG NO/CHI PHI NK RONG BIEN.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="CP NHẬP" sheetId="1" r:id="rId1"/>
+    <sheet name="CP-Xuất" sheetId="5" r:id="rId2"/>
+    <sheet name="CP-Xuất (2)" sheetId="6" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames>
+    <definedName name="_Fill" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="_Fill" localSheetId="2" hidden="1">#REF!</definedName>
+    <definedName name="_Fill" hidden="1">#REF!</definedName>
+  </definedNames>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="74">
   <si>
     <t xml:space="preserve">Công Ty TNHH Hải Sản An Lạc </t>
   </si>
@@ -36,9 +41,6 @@
     <t>Họ tên: Nguyễn Thiện Duyệt</t>
   </si>
   <si>
-    <t>Số phiếu chi</t>
-  </si>
-  <si>
     <t xml:space="preserve">Số tiền tạm ứng: </t>
   </si>
   <si>
@@ -109,19 +111,172 @@
   </si>
   <si>
     <t>Phí vệ sinh cont, chứng từ, THC</t>
+  </si>
+  <si>
+    <t>NỘI DUNG</t>
+  </si>
+  <si>
+    <t>SỐ LƯỢNG</t>
+  </si>
+  <si>
+    <t>ĐƠN GIÁ</t>
+  </si>
+  <si>
+    <t>THÀNH TIỀN USD</t>
+  </si>
+  <si>
+    <t>TỔNG</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>THÀNH TIỀN</t>
+  </si>
+  <si>
+    <t>BD làm C/O</t>
+  </si>
+  <si>
+    <t>Phí kiểm mẫu Nafi</t>
+  </si>
+  <si>
+    <t>Bồi dưỡng kiểm hàng Nafi</t>
+  </si>
+  <si>
+    <t>TỔNG CỘNG CHI PHÍ</t>
+  </si>
+  <si>
+    <t>Lá rong biển thắt nơ</t>
+  </si>
+  <si>
+    <t>cọng rong biển cắt sợi</t>
+  </si>
+  <si>
+    <t>Bồi dưỡng làm health</t>
+  </si>
+  <si>
+    <t>CHI PHÍ XUẤT HÀNG RONG BIỂN</t>
+  </si>
+  <si>
+    <t>TỜ KHAI (lần 1): 14/06/16</t>
+  </si>
+  <si>
+    <t>TỜ KHAI (lần 2): 26/07/16</t>
+  </si>
+  <si>
+    <t>TỜ KHAI (lần 3): dự kiến</t>
+  </si>
+  <si>
+    <t>THANH TOÁN</t>
+  </si>
+  <si>
+    <t>CHI PHÍ GIA CÔNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wakame </t>
+  </si>
+  <si>
+    <t>Monova</t>
+  </si>
+  <si>
+    <t>Kensan</t>
+  </si>
+  <si>
+    <t>Gumbu</t>
+  </si>
+  <si>
+    <t>Tiền tàu, phí chứng từ, phí nâng hạ</t>
+  </si>
+  <si>
+    <t>Phí vận chuyển ra sân bay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An Lạc </t>
+  </si>
+  <si>
+    <t>Phan Thiết</t>
+  </si>
+  <si>
+    <t>Phế liệu</t>
+  </si>
+  <si>
+    <t>Phí chứng từ</t>
+  </si>
+  <si>
+    <t>CHI PHÍ KHÁC</t>
+  </si>
+  <si>
+    <t>MB, Điện, Nước</t>
+  </si>
+  <si>
+    <t>Thanh toán:</t>
+  </si>
+  <si>
+    <t>Còn lại:</t>
+  </si>
+  <si>
+    <t>THANH TOÁN:</t>
+  </si>
+  <si>
+    <t>20/5/16 Chuyển NH</t>
+  </si>
+  <si>
+    <t>Chi phí nhập khẩu</t>
+  </si>
+  <si>
+    <t>Công đóng thùng (TP) (8100kg x 1000đ)</t>
+  </si>
+  <si>
+    <t>Bao PE lót kết ( 40kg x 42.000đ)</t>
+  </si>
+  <si>
+    <t>Lá rong biển thắt nơ 15kg/box</t>
+  </si>
+  <si>
+    <t>Lá rong biển thắt nơ 35kg/box</t>
+  </si>
+  <si>
+    <t>TỜ KHAI (lần 3): 24/08/16</t>
+  </si>
+  <si>
+    <t>Thanh toán 20/05/16:</t>
+  </si>
+  <si>
+    <t>Thanh toán 24/08/16:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="12">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;?_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="#,###"/>
+    <numFmt numFmtId="170" formatCode="\$#,##0\ ;\(\$#,##0\)"/>
+    <numFmt numFmtId="171" formatCode="&quot;\&quot;#,##0;[Red]&quot;\&quot;&quot;\&quot;\-#,##0"/>
+    <numFmt numFmtId="172" formatCode="&quot;\&quot;#,##0.00;[Red]&quot;\&quot;&quot;\&quot;&quot;\&quot;&quot;\&quot;&quot;\&quot;&quot;\&quot;\-#,##0.00"/>
+    <numFmt numFmtId="173" formatCode="&quot;\&quot;#,##0.00;[Red]&quot;\&quot;\-#,##0.00"/>
+    <numFmt numFmtId="174" formatCode="&quot;\&quot;#,##0;[Red]&quot;\&quot;\-#,##0"/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -165,16 +320,118 @@
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="VNI-Times"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="VNI-Times"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="VNI-Times"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val=".VnAvant"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="VNI-Cooper"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="뼻뮝"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="뼻뮝"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="바탕체"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="굴림체"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -276,72 +533,421 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="3" fontId="13" fillId="2" borderId="1"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="2" borderId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="17"/>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="18"/>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="17" fillId="0" borderId="9"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="40" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="38" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="10" xfId="38" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="1" xfId="38" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="11" xfId="38" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" xfId="38" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -349,23 +955,69 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="38" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" xfId="38" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="1" xfId="38" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="39">
+    <cellStyle name="cg" xfId="5"/>
+    <cellStyle name="Comma" xfId="38" builtinId="3"/>
+    <cellStyle name="Comma 2" xfId="3"/>
+    <cellStyle name="Comma 3" xfId="6"/>
+    <cellStyle name="Comma 4" xfId="7"/>
+    <cellStyle name="Comma 5" xfId="8"/>
+    <cellStyle name="Comma 6" xfId="9"/>
+    <cellStyle name="Comma_cong no VL" xfId="4"/>
+    <cellStyle name="Comma0" xfId="10"/>
+    <cellStyle name="Currency0" xfId="11"/>
+    <cellStyle name="Date" xfId="12"/>
+    <cellStyle name="f1" xfId="13"/>
+    <cellStyle name="f2" xfId="14"/>
+    <cellStyle name="Fixed" xfId="15"/>
+    <cellStyle name="Header1" xfId="16"/>
+    <cellStyle name="Header2" xfId="17"/>
+    <cellStyle name="k0" xfId="18"/>
+    <cellStyle name="k1" xfId="19"/>
+    <cellStyle name="k2" xfId="20"/>
+    <cellStyle name="k3" xfId="21"/>
+    <cellStyle name="moi" xfId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="23"/>
+    <cellStyle name="Normal 4" xfId="24"/>
+    <cellStyle name="Normal 5" xfId="25"/>
+    <cellStyle name="Normal_CHI PHI HANG CHÚ NGUYÊN" xfId="2"/>
+    <cellStyle name="TD1" xfId="26"/>
+    <cellStyle name="똿뗦먛귟 [0.00]_PRODUCT DETAIL Q1" xfId="27"/>
+    <cellStyle name="똿뗦먛귟_PRODUCT DETAIL Q1" xfId="28"/>
+    <cellStyle name="믅됞 [0.00]_PRODUCT DETAIL Q1" xfId="29"/>
+    <cellStyle name="믅됞_PRODUCT DETAIL Q1" xfId="30"/>
+    <cellStyle name="백분율_HOBONG" xfId="31"/>
+    <cellStyle name="뷭?_BOOKSHIP" xfId="32"/>
+    <cellStyle name="콤마 [0]_1202" xfId="33"/>
+    <cellStyle name="콤마_1202" xfId="34"/>
+    <cellStyle name="통화 [0]_1202" xfId="35"/>
+    <cellStyle name="통화_1202" xfId="36"/>
+    <cellStyle name="표준_(정보부문)월별인원계획" xfId="37"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -452,6 +1104,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -486,6 +1139,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -661,11 +1315,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -678,15 +1332,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="33" t="s">
+      <c r="B1" s="88"/>
+      <c r="C1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="34"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="90"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
@@ -695,22 +1349,22 @@
         <v>2</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="20.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="92"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
@@ -730,32 +1384,32 @@
         <v>6</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="C7" s="4">
+        <v>15000000</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" ht="15.75">
       <c r="A8" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="4">
-        <v>15000000</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="15.75">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="93"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -763,215 +1417,211 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" ht="15.75">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="B10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" ht="15.75">
-      <c r="A11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="A11" s="7">
+        <v>1</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>15</v>
       </c>
+      <c r="C11" s="9">
+        <v>200000</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" ht="15.75">
-      <c r="A12" s="7">
-        <v>1</v>
+      <c r="A12" s="12">
+        <v>2</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="9">
-        <v>200000</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
+      <c r="C12" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="14"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" ht="15.75">
       <c r="A13" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="13">
-        <v>1000000</v>
-      </c>
-      <c r="D13" s="12"/>
+        <v>238000</v>
+      </c>
+      <c r="D13" s="12">
+        <v>14231</v>
+      </c>
       <c r="E13" s="14"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" ht="15.75">
       <c r="A14" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="13">
-        <v>238000</v>
-      </c>
-      <c r="D14" s="12">
-        <v>14231</v>
-      </c>
+      <c r="C14" s="15">
+        <v>100000</v>
+      </c>
+      <c r="D14" s="12"/>
       <c r="E14" s="14"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="15.75">
       <c r="A15" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C15" s="15">
-        <v>100000</v>
-      </c>
-      <c r="D15" s="12"/>
+        <v>5159000</v>
+      </c>
+      <c r="D15" s="12">
+        <v>39091</v>
+      </c>
       <c r="E15" s="14"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="G15" s="28"/>
     </row>
     <row r="16" spans="1:7" ht="15.75">
       <c r="A16" s="12">
-        <v>5</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="15">
-        <v>5159000</v>
-      </c>
-      <c r="D16" s="12">
-        <v>39091</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="27">
+        <v>4615000</v>
+      </c>
+      <c r="D16" s="12"/>
       <c r="E16" s="14"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="28"/>
     </row>
     <row r="17" spans="1:5" ht="15.75">
       <c r="A17" s="12">
-        <v>6</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="27">
-        <v>4615000</v>
-      </c>
-      <c r="D17" s="12"/>
+        <v>7</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="15">
+        <v>9050000</v>
+      </c>
+      <c r="D17" s="12">
+        <v>188353</v>
+      </c>
       <c r="E17" s="14"/>
     </row>
     <row r="18" spans="1:5" ht="15.75">
       <c r="A18" s="12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="15">
-        <v>9050000</v>
-      </c>
-      <c r="D18" s="12">
-        <v>188353</v>
-      </c>
+        <v>1500000</v>
+      </c>
+      <c r="D18" s="16"/>
       <c r="E18" s="14"/>
     </row>
     <row r="19" spans="1:5" ht="15.75">
       <c r="A19" s="12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="15">
-        <v>1500000</v>
-      </c>
-      <c r="D19" s="16"/>
+        <v>500000</v>
+      </c>
+      <c r="D19" s="12"/>
       <c r="E19" s="14"/>
     </row>
     <row r="20" spans="1:5" ht="15.75">
-      <c r="A20" s="12">
-        <v>9</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="15">
-        <v>500000</v>
-      </c>
+      <c r="A20" s="12"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="12"/>
       <c r="E20" s="14"/>
     </row>
     <row r="21" spans="1:5" ht="15.75">
-      <c r="A21" s="12"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="14"/>
+      <c r="A21" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="95"/>
+      <c r="C21" s="18">
+        <f>SUM(C11:C20)</f>
+        <v>22362000</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="20"/>
     </row>
     <row r="22" spans="1:5" ht="15.75">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="24"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="18">
-        <f>SUM(C12:C21)</f>
-        <v>22362000</v>
-      </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="20"/>
-    </row>
-    <row r="23" spans="1:5" ht="15.75">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="24"/>
+      <c r="E23" s="85"/>
     </row>
     <row r="24" spans="1:5" ht="15.75">
-      <c r="A24" s="3"/>
+      <c r="A24" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="29"/>
+      <c r="C24" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="86"/>
     </row>
     <row r="25" spans="1:5" ht="15.75">
-      <c r="A25" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="30"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
     </row>
     <row r="26" spans="1:5" ht="15.75">
       <c r="A26" s="26"/>
@@ -980,55 +1630,1432 @@
       <c r="D26" s="26"/>
       <c r="E26" s="26"/>
     </row>
-    <row r="27" spans="1:5" ht="15.75">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="D30" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" s="31"/>
+    <row r="29" spans="1:5">
+      <c r="D29" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="D23:E23"/>
     <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D29:E29"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A21:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor indexed="25"/>
+  </sheetPr>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="4" style="30" customWidth="1"/>
+    <col min="2" max="2" width="40.140625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="32" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="32" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="30" customWidth="1"/>
+    <col min="7" max="16384" width="10.28515625" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="27.75" customHeight="1">
+      <c r="A1" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="29"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1">
+      <c r="A2" s="29"/>
+    </row>
+    <row r="3" spans="1:10" s="37" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A3" s="33"/>
+      <c r="B3" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="17.25" customHeight="1">
+      <c r="B4" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="39"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="42"/>
+    </row>
+    <row r="5" spans="1:10" ht="17.25" customHeight="1">
+      <c r="B5" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="44">
+        <v>1750</v>
+      </c>
+      <c r="D5" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="46">
+        <f>C5*D5</f>
+        <v>875</v>
+      </c>
+      <c r="F5" s="47"/>
+    </row>
+    <row r="6" spans="1:10" ht="17.25" customHeight="1">
+      <c r="B6" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="44">
+        <v>5390</v>
+      </c>
+      <c r="D6" s="45">
+        <v>0.25</v>
+      </c>
+      <c r="E6" s="46">
+        <f>C6*D6</f>
+        <v>1347.5</v>
+      </c>
+      <c r="F6" s="47"/>
+    </row>
+    <row r="7" spans="1:10" ht="17.25" customHeight="1">
+      <c r="B7" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="46">
+        <f t="shared" ref="E7:E11" si="0">C7*D7</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="47"/>
+      <c r="I7" s="98" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="98">
+        <v>4434</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="17.25" customHeight="1">
+      <c r="B8" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="44">
+        <v>900</v>
+      </c>
+      <c r="D8" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="46">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="F8" s="47"/>
+      <c r="I8" s="98" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" s="98">
+        <v>741.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="17.25" customHeight="1">
+      <c r="B9" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="44"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="47"/>
+      <c r="I9" s="98" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="98">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="17.25" customHeight="1">
+      <c r="B10" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="44">
+        <v>8100</v>
+      </c>
+      <c r="D10" s="45">
+        <v>1</v>
+      </c>
+      <c r="E10" s="46">
+        <f t="shared" si="0"/>
+        <v>8100</v>
+      </c>
+      <c r="F10" s="47"/>
+      <c r="I10" s="98" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="98">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="17.25" customHeight="1">
+      <c r="B11" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="44">
+        <v>3150</v>
+      </c>
+      <c r="D11" s="45">
+        <v>1</v>
+      </c>
+      <c r="E11" s="46">
+        <f t="shared" si="0"/>
+        <v>3150</v>
+      </c>
+      <c r="F11" s="47"/>
+    </row>
+    <row r="12" spans="1:10" ht="17.25" customHeight="1">
+      <c r="B12" s="43"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="47"/>
+    </row>
+    <row r="13" spans="1:10" s="29" customFormat="1" ht="17.25" customHeight="1">
+      <c r="B13" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="77"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="80"/>
+    </row>
+    <row r="14" spans="1:10" ht="17.25" customHeight="1">
+      <c r="B14" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="44"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="47">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="17.25" customHeight="1">
+      <c r="B15" s="48"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="52"/>
+    </row>
+    <row r="16" spans="1:10" s="29" customFormat="1" ht="17.25" customHeight="1">
+      <c r="B16" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="54">
+        <f>SUM(C4:C15)</f>
+        <v>19290</v>
+      </c>
+      <c r="D16" s="54"/>
+      <c r="E16" s="55">
+        <f>SUM(E4:E15)</f>
+        <v>13922.5</v>
+      </c>
+      <c r="F16" s="70">
+        <f>SUM(F4:F15)</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="29" customFormat="1" ht="17.25" customHeight="1">
+      <c r="B17" s="81"/>
+      <c r="C17" s="74" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="82"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="99">
+        <f>E16-F16</f>
+        <v>8922.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="11.25" customHeight="1">
+      <c r="B18" s="57"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="59"/>
+    </row>
+    <row r="19" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A19" s="29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="60" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A20" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A21" s="61">
+        <v>1</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="39"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="64"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A22" s="61"/>
+      <c r="B22" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="68">
+        <v>5.2149999999999999</v>
+      </c>
+      <c r="D22" s="63">
+        <v>270</v>
+      </c>
+      <c r="E22" s="69">
+        <f>C22*D22</f>
+        <v>1408.05</v>
+      </c>
+      <c r="F22" s="64"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A23" s="61"/>
+      <c r="B23" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="68">
+        <v>0.7</v>
+      </c>
+      <c r="D23" s="63">
+        <v>200</v>
+      </c>
+      <c r="E23" s="69">
+        <f t="shared" ref="E23:E25" si="1">C23*D23</f>
+        <v>140</v>
+      </c>
+      <c r="F23" s="64"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A24" s="61"/>
+      <c r="B24" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="68">
+        <v>1.4350000000000001</v>
+      </c>
+      <c r="D24" s="63">
+        <v>420</v>
+      </c>
+      <c r="E24" s="69">
+        <f t="shared" si="1"/>
+        <v>602.70000000000005</v>
+      </c>
+      <c r="F24" s="64"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A25" s="61"/>
+      <c r="B25" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="68">
+        <f>1.085+0.028</f>
+        <v>1.113</v>
+      </c>
+      <c r="D25" s="63">
+        <v>800</v>
+      </c>
+      <c r="E25" s="69">
+        <f t="shared" si="1"/>
+        <v>890.4</v>
+      </c>
+      <c r="F25" s="71"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A26" s="61"/>
+      <c r="B26" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="68"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="69">
+        <f>F26/22300</f>
+        <v>807.90739910313903</v>
+      </c>
+      <c r="F26" s="71">
+        <v>18016335</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A27" s="61"/>
+      <c r="B27" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="39"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="69">
+        <f t="shared" ref="E27:E30" si="2">F27/22300</f>
+        <v>8.9686098654708513</v>
+      </c>
+      <c r="F27" s="71">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A28" s="61"/>
+      <c r="B28" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="39"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="69">
+        <f t="shared" si="2"/>
+        <v>8.9686098654708513</v>
+      </c>
+      <c r="F28" s="71">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A29" s="61"/>
+      <c r="B29" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="39"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="69">
+        <f t="shared" si="2"/>
+        <v>22.421524663677129</v>
+      </c>
+      <c r="F29" s="71">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A30" s="61"/>
+      <c r="B30" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="39"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="69">
+        <f t="shared" si="2"/>
+        <v>22.421524663677129</v>
+      </c>
+      <c r="F30" s="71">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A31" s="61"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="71"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A32" s="61">
+        <v>2</v>
+      </c>
+      <c r="B32" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="39"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="71"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A33" s="61"/>
+      <c r="B33" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="68">
+        <f>0.906</f>
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="D33" s="63">
+        <v>1200</v>
+      </c>
+      <c r="E33" s="69">
+        <f>C33*D33</f>
+        <v>1087.2</v>
+      </c>
+      <c r="F33" s="71"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A34" s="61"/>
+      <c r="B34" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="39"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="69">
+        <f>900000/22300</f>
+        <v>40.358744394618832</v>
+      </c>
+      <c r="F34" s="71"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A35" s="61"/>
+      <c r="B35" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="39"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="69">
+        <f>300000/22300</f>
+        <v>13.452914798206278</v>
+      </c>
+      <c r="F35" s="64"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A36" s="61"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="64"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A37" s="61">
+        <v>3</v>
+      </c>
+      <c r="B37" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="39"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="64"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A38" s="61"/>
+      <c r="B38" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="68">
+        <f>4.434</f>
+        <v>4.4340000000000002</v>
+      </c>
+      <c r="D38" s="63">
+        <v>1200</v>
+      </c>
+      <c r="E38" s="69">
+        <f>C38*D38</f>
+        <v>5320.8</v>
+      </c>
+      <c r="F38" s="64"/>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A39" s="61"/>
+      <c r="B39" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="68"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="69">
+        <v>807.90739910313903</v>
+      </c>
+      <c r="F39" s="64"/>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A40" s="61"/>
+      <c r="B40" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="39"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="69">
+        <v>8.9686098654708513</v>
+      </c>
+      <c r="F40" s="64"/>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A41" s="61"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="69">
+        <f t="shared" ref="E41" si="3">C41*D41</f>
+        <v>0</v>
+      </c>
+      <c r="F41" s="64"/>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A42" s="61">
+        <v>4</v>
+      </c>
+      <c r="B42" s="73" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="44"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="64"/>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A43" s="61"/>
+      <c r="B43" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="44"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="72">
+        <v>1000</v>
+      </c>
+      <c r="F43" s="64"/>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A44" s="61"/>
+      <c r="B44" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="44"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="72">
+        <v>1005</v>
+      </c>
+      <c r="F44" s="64"/>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A45" s="61"/>
+      <c r="B45" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="44"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="72">
+        <f>8100000/22300</f>
+        <v>363.22869955156949</v>
+      </c>
+      <c r="F45" s="64"/>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A46" s="61"/>
+      <c r="B46" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="44"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="72">
+        <f>1680000/22300</f>
+        <v>75.336322869955154</v>
+      </c>
+      <c r="F46" s="64"/>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A47" s="66"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="64"/>
+    </row>
+    <row r="48" spans="1:6" ht="6" customHeight="1">
+      <c r="A48" s="66"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="52"/>
+    </row>
+    <row r="49" spans="1:6" s="29" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A49" s="53"/>
+      <c r="B49" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="100">
+        <f>SUM(C21:C47)</f>
+        <v>13.803000000000001</v>
+      </c>
+      <c r="D49" s="56"/>
+      <c r="E49" s="70">
+        <f>SUM(E21:E48)</f>
+        <v>13634.090358744395</v>
+      </c>
+      <c r="F49" s="30"/>
+    </row>
+    <row r="50" spans="1:6" ht="8.25" customHeight="1"/>
+    <row r="51" spans="1:6" s="29" customFormat="1">
+      <c r="C51" s="74" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51" s="75"/>
+      <c r="E51" s="76">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="29" customFormat="1">
+      <c r="C52" s="74" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" s="75"/>
+      <c r="E52" s="76">
+        <v>8616.7000000000007</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="29" customFormat="1">
+      <c r="C53" s="74" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53" s="75"/>
+      <c r="E53" s="76">
+        <f>E49-E51-E52</f>
+        <v>17.390358744394689</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C18:D18"/>
+  </mergeCells>
+  <pageMargins left="0.51" right="0.25" top="0.19" bottom="0.25" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor indexed="25"/>
+  </sheetPr>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="4" style="30" customWidth="1"/>
+    <col min="2" max="2" width="40.140625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="32" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="32" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="30" customWidth="1"/>
+    <col min="7" max="16384" width="10.28515625" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="27.75" customHeight="1">
+      <c r="A1" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="29"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1">
+      <c r="A2" s="29"/>
+    </row>
+    <row r="3" spans="1:6" s="37" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A3" s="33"/>
+      <c r="B3" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17.25" customHeight="1">
+      <c r="B4" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="39"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="42"/>
+    </row>
+    <row r="5" spans="1:6" ht="17.25" customHeight="1">
+      <c r="B5" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="44">
+        <v>1750</v>
+      </c>
+      <c r="D5" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="46">
+        <f>C5*D5</f>
+        <v>875</v>
+      </c>
+      <c r="F5" s="47"/>
+    </row>
+    <row r="6" spans="1:6" ht="17.25" customHeight="1">
+      <c r="B6" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="44">
+        <v>5390</v>
+      </c>
+      <c r="D6" s="45">
+        <v>0.25</v>
+      </c>
+      <c r="E6" s="46">
+        <f>C6*D6</f>
+        <v>1347.5</v>
+      </c>
+      <c r="F6" s="47"/>
+    </row>
+    <row r="7" spans="1:6" ht="17.25" customHeight="1">
+      <c r="B7" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="46">
+        <f t="shared" ref="E7:E13" si="0">C7*D7</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="47"/>
+    </row>
+    <row r="8" spans="1:6" ht="17.25" customHeight="1">
+      <c r="B8" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="44">
+        <v>900</v>
+      </c>
+      <c r="D8" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="46">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="F8" s="47"/>
+    </row>
+    <row r="9" spans="1:6" ht="17.25" customHeight="1">
+      <c r="B9" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="44"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="47"/>
+    </row>
+    <row r="10" spans="1:6" ht="17.25" customHeight="1">
+      <c r="B10" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="44">
+        <v>4434</v>
+      </c>
+      <c r="D10" s="45"/>
+      <c r="E10" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="47"/>
+    </row>
+    <row r="11" spans="1:6" ht="17.25" customHeight="1">
+      <c r="B11" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="44">
+        <f>33.5+708</f>
+        <v>741.5</v>
+      </c>
+      <c r="D11" s="45"/>
+      <c r="E11" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="47"/>
+    </row>
+    <row r="12" spans="1:6" ht="17.25" customHeight="1">
+      <c r="B12" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="44">
+        <v>3614</v>
+      </c>
+      <c r="D12" s="45"/>
+      <c r="E12" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="47"/>
+    </row>
+    <row r="13" spans="1:6" ht="17.25" customHeight="1">
+      <c r="B13" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="44">
+        <v>990</v>
+      </c>
+      <c r="D13" s="45"/>
+      <c r="E13" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="47"/>
+    </row>
+    <row r="14" spans="1:6" ht="17.25" customHeight="1">
+      <c r="B14" s="43"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="47"/>
+    </row>
+    <row r="15" spans="1:6" s="29" customFormat="1" ht="17.25" customHeight="1">
+      <c r="B15" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="77"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="80"/>
+    </row>
+    <row r="16" spans="1:6" ht="17.25" customHeight="1">
+      <c r="B16" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="44"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="47">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17.25" customHeight="1">
+      <c r="B17" s="48"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="52"/>
+    </row>
+    <row r="18" spans="1:6" s="29" customFormat="1" ht="17.25" customHeight="1">
+      <c r="B18" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="54">
+        <f>SUM(C4:C17)</f>
+        <v>17819.5</v>
+      </c>
+      <c r="D18" s="54"/>
+      <c r="E18" s="55">
+        <f>SUM(E4:E17)</f>
+        <v>2672.5</v>
+      </c>
+      <c r="F18" s="70">
+        <f>SUM(F4:F17)</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="29" customFormat="1" ht="17.25" customHeight="1">
+      <c r="B19" s="81"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="84"/>
+    </row>
+    <row r="20" spans="1:6" ht="11.25" customHeight="1">
+      <c r="B20" s="57"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="59"/>
+    </row>
+    <row r="21" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A21" s="29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="60" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A22" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A23" s="61">
+        <v>1</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="39"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="64"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A24" s="61"/>
+      <c r="B24" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="68">
+        <v>5.2149999999999999</v>
+      </c>
+      <c r="D24" s="63">
+        <v>270</v>
+      </c>
+      <c r="E24" s="69">
+        <f>C24*D24</f>
+        <v>1408.05</v>
+      </c>
+      <c r="F24" s="64"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A25" s="61"/>
+      <c r="B25" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="68">
+        <v>0.7</v>
+      </c>
+      <c r="D25" s="63">
+        <v>200</v>
+      </c>
+      <c r="E25" s="69">
+        <f t="shared" ref="E25:E27" si="1">C25*D25</f>
+        <v>140</v>
+      </c>
+      <c r="F25" s="64"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A26" s="61"/>
+      <c r="B26" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="68">
+        <v>1.4350000000000001</v>
+      </c>
+      <c r="D26" s="63">
+        <v>420</v>
+      </c>
+      <c r="E26" s="69">
+        <f t="shared" si="1"/>
+        <v>602.70000000000005</v>
+      </c>
+      <c r="F26" s="64"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A27" s="61"/>
+      <c r="B27" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="68">
+        <f>1.085+0.028</f>
+        <v>1.113</v>
+      </c>
+      <c r="D27" s="63">
+        <v>800</v>
+      </c>
+      <c r="E27" s="69">
+        <f t="shared" si="1"/>
+        <v>890.4</v>
+      </c>
+      <c r="F27" s="71"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A28" s="61"/>
+      <c r="B28" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="68"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="69">
+        <f>F28/22300</f>
+        <v>807.90739910313903</v>
+      </c>
+      <c r="F28" s="71">
+        <v>18016335</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A29" s="61"/>
+      <c r="B29" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="39"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="69">
+        <f t="shared" ref="E29:E32" si="2">F29/22300</f>
+        <v>8.9686098654708513</v>
+      </c>
+      <c r="F29" s="71">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A30" s="61"/>
+      <c r="B30" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="39"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="69">
+        <f t="shared" si="2"/>
+        <v>8.9686098654708513</v>
+      </c>
+      <c r="F30" s="71">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A31" s="61"/>
+      <c r="B31" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="39"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="69">
+        <f t="shared" si="2"/>
+        <v>22.421524663677129</v>
+      </c>
+      <c r="F31" s="71">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A32" s="61"/>
+      <c r="B32" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="39"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="69">
+        <f t="shared" si="2"/>
+        <v>22.421524663677129</v>
+      </c>
+      <c r="F32" s="71">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A33" s="61"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="71"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A34" s="61">
+        <v>2</v>
+      </c>
+      <c r="B34" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="39"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="71"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A35" s="61"/>
+      <c r="B35" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="68">
+        <f>0.906</f>
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="D35" s="63">
+        <v>1200</v>
+      </c>
+      <c r="E35" s="69">
+        <f>C35*D35</f>
+        <v>1087.2</v>
+      </c>
+      <c r="F35" s="71"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A36" s="61"/>
+      <c r="B36" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="39"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="69">
+        <f>900000/22300</f>
+        <v>40.358744394618832</v>
+      </c>
+      <c r="F36" s="71"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A37" s="61"/>
+      <c r="B37" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="39"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="69">
+        <f>300000/22300</f>
+        <v>13.452914798206278</v>
+      </c>
+      <c r="F37" s="64"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A38" s="61"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="64"/>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A39" s="61">
+        <v>3</v>
+      </c>
+      <c r="B39" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="39"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="64"/>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A40" s="61"/>
+      <c r="B40" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="68">
+        <f>4.434</f>
+        <v>4.4340000000000002</v>
+      </c>
+      <c r="D40" s="63">
+        <v>1200</v>
+      </c>
+      <c r="E40" s="69">
+        <f>C40*D40</f>
+        <v>5320.8</v>
+      </c>
+      <c r="F40" s="64"/>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A41" s="61"/>
+      <c r="B41" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="68"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="69">
+        <v>807.90739910313903</v>
+      </c>
+      <c r="F41" s="64"/>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A42" s="61"/>
+      <c r="B42" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="39"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="69">
+        <v>8.9686098654708513</v>
+      </c>
+      <c r="F42" s="64"/>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A43" s="61"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="69">
+        <f t="shared" ref="E43" si="3">C43*D43</f>
+        <v>0</v>
+      </c>
+      <c r="F43" s="64"/>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A44" s="61">
+        <v>4</v>
+      </c>
+      <c r="B44" s="73" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="44"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="72"/>
+      <c r="F44" s="64"/>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A45" s="61"/>
+      <c r="B45" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="44"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="72">
+        <v>1000</v>
+      </c>
+      <c r="F45" s="64"/>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A46" s="61"/>
+      <c r="B46" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" s="44"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="72">
+        <v>1005</v>
+      </c>
+      <c r="F46" s="64"/>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A47" s="61"/>
+      <c r="B47" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" s="44"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="72">
+        <f>8100000/22300</f>
+        <v>363.22869955156949</v>
+      </c>
+      <c r="F47" s="64"/>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A48" s="61"/>
+      <c r="B48" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" s="44"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="72">
+        <f>1680000/22300</f>
+        <v>75.336322869955154</v>
+      </c>
+      <c r="F48" s="64"/>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A49" s="66"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="67"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="64"/>
+    </row>
+    <row r="50" spans="1:6" ht="6" customHeight="1">
+      <c r="A50" s="66"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="52"/>
+    </row>
+    <row r="51" spans="1:6" s="29" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A51" s="53"/>
+      <c r="B51" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="54"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="70">
+        <f>SUM(E23:E50)</f>
+        <v>13634.090358744395</v>
+      </c>
+      <c r="F51" s="30"/>
+    </row>
+    <row r="52" spans="1:6" ht="8.25" customHeight="1"/>
+    <row r="53" spans="1:6" s="29" customFormat="1">
+      <c r="C53" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="D53" s="75"/>
+      <c r="E53" s="76">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="29" customFormat="1">
+      <c r="C54" s="74"/>
+      <c r="D54" s="75"/>
+      <c r="E54" s="75"/>
+    </row>
+    <row r="55" spans="1:6" s="29" customFormat="1">
+      <c r="C55" s="74" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55" s="75"/>
+      <c r="E55" s="76">
+        <f>E51-E53</f>
+        <v>8634.0903587443954</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C20:D20"/>
+  </mergeCells>
+  <pageMargins left="0.51" right="0.25" top="0.19" bottom="0.25" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>